--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku1.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33060" yWindow="1035" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,8 @@
     <sheet name="ACV" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="DCI" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ACI" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -67,6 +68,30 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -172,30 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -247,20 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,6 +474,36 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1333500" cy="1104900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -817,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="16" t="n"/>
-      <c r="E2" s="17" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="14" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -826,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="17" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="14" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -848,15 +879,15 @@
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>Strona 1/5</t>
+          <t>Strona 1/6</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="15" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="15" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="17" t="n"/>
+      <c r="E5" s="17" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -874,8 +905,8 @@
           <t xml:space="preserve">Multimetr [MODEL], nr </t>
         </is>
       </c>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="17" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="14" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -890,8 +921,8 @@
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="17" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="14" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -905,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="17" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="14" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -921,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="17" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="14" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -936,8 +967,8 @@
           <t>31.03.2023</t>
         </is>
       </c>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="17" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="14" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -951,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="17" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="14" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -966,8 +997,8 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="17" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="14" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
@@ -981,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="17" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="14" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1109,7 +1140,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 2/5</t>
+          <t>Strona 2/6</t>
         </is>
       </c>
     </row>
@@ -1176,216 +1207,282 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>-133.0</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n"/>
-      <c r="F21" s="17" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="13" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n"/>
-      <c r="C29" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="15" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="13" t="n"/>
-      <c r="F31" s="13" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
+      <c r="F31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="14" t="n"/>
-      <c r="C32" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="15" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="15" t="n"/>
+      <c r="F32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
-      <c r="F33" s="13" t="n"/>
+      <c r="B33" s="17" t="n"/>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n"/>
+      <c r="F33" s="15" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="13" t="n"/>
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="n"/>
+      <c r="E34" s="15" t="n"/>
+      <c r="F34" s="15" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="13" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="13" t="n"/>
-      <c r="F35" s="13" t="n"/>
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D35" s="15" t="n"/>
+      <c r="E35" s="15" t="n"/>
+      <c r="F35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="14" t="n"/>
-      <c r="C36" s="13" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="13" t="n"/>
-      <c r="F36" s="13" t="n"/>
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="n"/>
+      <c r="E36" s="15" t="n"/>
+      <c r="F36" s="15" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="15" t="n"/>
-      <c r="C37" s="13" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="13" t="n"/>
-      <c r="F37" s="13" t="n"/>
+      <c r="B37" s="17" t="n"/>
+      <c r="C37" s="15" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="15" t="n"/>
+      <c r="F37" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1481,7 +1578,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 3/5</t>
+          <t>Strona 3/6</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1592,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> f = 60 Hz</t>
+          <t xml:space="preserve">        f = 60 Hz</t>
         </is>
       </c>
     </row>
@@ -1527,91 +1624,91 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n">
         <v>360</v>
       </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n">
         <v>-360</v>
       </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="15" t="n">
         <v>750</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n">
         <v>375</v>
       </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n">
         <v>675</v>
       </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n">
         <v>-675</v>
       </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1703,7 +1800,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 4/5</t>
+          <t>Strona 4/6</t>
         </is>
       </c>
     </row>
@@ -1742,178 +1839,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="13" t="inlineStr">
+      <c r="B29" s="15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n"/>
-      <c r="F29" s="17" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="14" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="13" t="n"/>
-      <c r="F31" s="13" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
+      <c r="F31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="14" t="n"/>
-      <c r="C32" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="15" t="n"/>
+      <c r="F32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
-      <c r="F33" s="13" t="n"/>
+      <c r="B33" s="17" t="n"/>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n"/>
+      <c r="F33" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1942,6 +2087,279 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="92" customHeight="1">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>Metro-Lab Agnieszka Greń 
+ Warszawa 01-386 ul. Reżyserska 5 
+ tel. (+48) 661 472 870 
+ e-mail: poczta@metro-lab.pl 
+www.metro-lab.pl</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="41.25" customHeight="1">
+      <c r="A3" s="27" t="inlineStr">
+        <is>
+          <t>ŚWIADECTWO WZORCOWANIA</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>Data wydania:</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>31.03.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/02/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Strona 5/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Wyznaczenie poprawek wskazań nateżenia prądu przemiennego AC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        f = 60 Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="38.25" customHeight="1">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n">
+        <v>360</v>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B21:B24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G30"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -2008,21 +2426,14 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 5/5</t>
+          <t>Strona 6/6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Wyznaczenie poprawek wskazań nateżenia prądu przemiennego AC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> f = 60 Hz</t>
+          <t xml:space="preserve">        Wyznaczenie poprawek wskazań rezystancji.</t>
         </is>
       </c>
     </row>
@@ -2054,160 +2465,181 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
-      </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>36</v>
-      </c>
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
       <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
+      <c r="B22" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="C24" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
-      <c r="F25" s="17" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
       <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="F26" s="14" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n"/>
-      <c r="C29" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
+      <c r="B29" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:B29"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku1.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33060" yWindow="1035" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33750" yWindow="1725" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,30 +68,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -197,6 +173,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -248,20 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -848,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="14" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -857,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -884,10 +884,10 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="17" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -905,8 +905,8 @@
           <t xml:space="preserve">Multimetr [MODEL], nr </t>
         </is>
       </c>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="14" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -921,8 +921,8 @@
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -936,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="14" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -952,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="14" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -964,11 +964,11 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
-        </is>
-      </c>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="14" t="n"/>
+          <t>03.04.2023</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -982,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="14" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -997,8 +997,8 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="14" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
@@ -1012,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="14" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1207,282 +1207,216 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="E18" s="15" t="inlineStr">
-        <is>
-          <t>-133.0</t>
-        </is>
-      </c>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
+      <c r="B21" s="13" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="14" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="17" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="B26" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="B30" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
+      <c r="B34" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="13" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B36" s="14" t="n"/>
+      <c r="C36" s="13" t="n">
+        <v>900</v>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="15" t="inlineStr">
-        <is>
-          <t>-900</t>
-        </is>
-      </c>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="13" t="n">
+        <v>-900</v>
+      </c>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1566,7 +1500,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1624,91 +1558,91 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
         <v>360</v>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n">
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
         <v>-360</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="13" t="n">
         <v>75</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
         <v>375</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>675</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="n">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
         <v>-675</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1788,7 +1722,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1839,226 +1773,178 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="B21" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C25" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="inlineStr">
+      <c r="B29" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="14" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="17" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="B30" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2141,7 +2027,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2199,140 +2085,140 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n">
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
         <v>-36</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>360</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="n">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
         <v>-360</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="17" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n">
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n">
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n">
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n">
         <v>-9</v>
       </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2414,7 +2300,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2465,157 +2351,157 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="15" t="inlineStr">
+      <c r="B19" s="13" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="14" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="17" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="15" t="n">
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="13" t="n">
         <v>1.8</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="n">
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B26" s="13" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="14" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="17" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="15" t="n">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="15" t="n">
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
